--- a/biology/Zoologie/Boyeria_irene/Boyeria_irene.xlsx
+++ b/biology/Zoologie/Boyeria_irene/Boyeria_irene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’æschne paisible (Boyeria irene) est une espèce de libellules (Odonata) européennes du sous-ordre des anisoptères et de la famille des Aeshnidae. Elle porte aussi le nom de libellules fantôme ou  encore de spectre paisible. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'æschne paisible atteint 95 mm d'envergure pour une longueur de 63 à 71 mm.
 C'est une espèce cryptique, les mâles étant d'une couleur vert pâle et les femelles brunâtres.
@@ -546,7 +560,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe occidentale, depuis le sud de la Bretagne jusqu'au sud de l'Italie, Corse, Sardaigne ; Afrique du Nord : localisée au Maroc, Algérie, Tunisie.
 Observable dans les cours d'eau et rivières mais nécessite des zones ombragées. 
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Développement larvaire
-A lieu dans les ruisseaux, rivières, fleuves mais principalement dans les zones de courant avec des eaux claires.
+          <t>Développement larvaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A lieu dans les ruisseaux, rivières, fleuves mais principalement dans les zones de courant avec des eaux claires.
 </t>
         </is>
       </c>
